--- a/static/Dowload/班级导入模板.xlsx
+++ b/static/Dowload/班级导入模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="24180" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="班级导入模板" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">说明
 </t>
     </r>
@@ -30,12 +24,12 @@
       <rPr>
         <b/>
         <sz val="12"/>
-        <color indexed="10"/>
+        <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>红色标题为必填列
-从第3行开始填写数据</t>
+从第4行开始填写数据</t>
     </r>
   </si>
   <si>
@@ -86,11 +80,11 @@
   <si>
     <t xml:space="preserve">  （必填）
 建议填写对应的数字
-1.普通入学
-2.民族班
-3.体育特招
-4.外校转入
-5.恢复入学资格</t>
+0.普通入学
+1.民族班
+2.体育特招
+3.外校转入
+4.恢复入学资格</t>
   </si>
   <si>
     <t>（必填）
@@ -170,9 +164,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
@@ -226,6 +220,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -233,14 +241,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,7 +249,53 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,7 +310,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,7 +318,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -279,9 +326,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -300,70 +347,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -371,7 +365,7 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color indexed="10"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -397,25 +391,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,157 +535,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -591,17 +585,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -647,15 +644,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -665,11 +653,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -694,10 +688,10 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -706,137 +700,137 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -867,6 +861,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1195,12 +1192,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1047619047619" defaultRowHeight="12.75" outlineLevelRow="4"/>
@@ -1264,13 +1261,13 @@
       <c r="I2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="13" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1299,20 +1296,25 @@
       <c r="I3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="L3" s="14" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="3:10">
       <c r="C4" s="11"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
       <c r="I4" s="11"/>
-      <c r="J4" s="14"/>
+      <c r="J4" s="15"/>
     </row>
     <row r="5" s="2" customFormat="1"/>
   </sheetData>
